--- a/contact-scrape-test/contacts.xlsx
+++ b/contact-scrape-test/contacts.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D5BDFB-57D7-4DE4-B0C9-47CD47CD960C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4DEB21-78ED-4F1A-8650-1C2596677B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <t>jméno</t>
   </si>
@@ -912,6 +912,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -951,33 +975,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1282,47 +1282,43 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="E1" sqref="E1:H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="7" width="27.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1"/>
+    <col min="6" max="7" width="27.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="F1" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="F2" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
-    </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -1335,40 +1331,28 @@
       <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="33">
         <v>22</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="28">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="27"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>50</v>
@@ -1376,18 +1360,14 @@
       <c r="C5" s="31">
         <v>65</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="37" t="s">
         <v>69</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="15">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="3"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
         <v>41</v>
@@ -1395,17 +1375,13 @@
       <c r="C6" s="31">
         <v>66</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="37"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="15">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="40" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1414,35 +1390,25 @@
       <c r="C7" s="31">
         <v>69</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="F7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="15">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="37"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
       <c r="B8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="34">
         <v>70</v>
       </c>
-      <c r="D8" s="50"/>
+      <c r="D8" s="37"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="15">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="3"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -1452,20 +1418,14 @@
       <c r="C9" s="31">
         <v>71</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="15">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
@@ -1475,18 +1435,12 @@
       <c r="C10" s="31">
         <v>72</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="F10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="15">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="37"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1496,18 +1450,12 @@
       <c r="C11" s="31">
         <v>73</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="F11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="15">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="37"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
@@ -1517,41 +1465,29 @@
       <c r="C12" s="31">
         <v>74</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="F12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="15">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="37"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="35">
         <v>75</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="25">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="24"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
@@ -1561,41 +1497,31 @@
       <c r="C14" s="31">
         <v>76</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="15">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>71</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="35">
         <v>77</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="37" t="s">
         <v>72</v>
       </c>
       <c r="F15" s="24"/>
-      <c r="G15" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="25">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="21"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
@@ -1605,20 +1531,14 @@
       <c r="C16" s="31">
         <v>78</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="15">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -1628,18 +1548,12 @@
       <c r="C17" s="31">
         <v>79</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="F17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="15">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="37"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
@@ -1649,18 +1563,12 @@
       <c r="C18" s="31">
         <v>80</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="F18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="15">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="37"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
         <v>15</v>
@@ -1668,16 +1576,12 @@
       <c r="C19" s="31">
         <v>81</v>
       </c>
-      <c r="D19" s="50"/>
+      <c r="D19" s="37"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="15">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="3"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -1687,20 +1591,14 @@
       <c r="C20" s="31">
         <v>82</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="15">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -1710,20 +1608,14 @@
       <c r="C21" s="31">
         <v>83</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="15">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
         <v>9</v>
@@ -1731,16 +1623,12 @@
       <c r="C22" s="31">
         <v>84</v>
       </c>
-      <c r="D22" s="50"/>
+      <c r="D22" s="37"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="15">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="3"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="3" t="s">
         <v>11</v>
@@ -1748,33 +1636,25 @@
       <c r="C23" s="31">
         <v>85</v>
       </c>
-      <c r="D23" s="50"/>
+      <c r="D23" s="37"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="15">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="3"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
       <c r="B24" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="35">
         <v>86</v>
       </c>
-      <c r="D24" s="50"/>
+      <c r="D24" s="37"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="25">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="21"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -1782,16 +1662,12 @@
       <c r="C25" s="31">
         <v>87</v>
       </c>
-      <c r="D25" s="50"/>
+      <c r="D25" s="37"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="15">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="3"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="3" t="s">
         <v>16</v>
@@ -1799,18 +1675,14 @@
       <c r="C26" s="31">
         <v>88</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="37" t="s">
         <v>73</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="15">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="3"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
         <v>17</v>
@@ -1818,33 +1690,25 @@
       <c r="C27" s="31">
         <v>89</v>
       </c>
-      <c r="D27" s="50"/>
+      <c r="D27" s="37"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="15">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="3"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="24"/>
       <c r="B28" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="35">
         <v>90</v>
       </c>
-      <c r="D28" s="50"/>
+      <c r="D28" s="37"/>
       <c r="F28" s="24"/>
-      <c r="G28" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="25">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="21"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
@@ -1854,18 +1718,12 @@
       <c r="C29" s="31">
         <v>91</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="F29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="15">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="37"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>22</v>
       </c>
@@ -1875,20 +1733,14 @@
       <c r="C30" s="31">
         <v>92</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="15">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="5"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
@@ -1898,62 +1750,44 @@
       <c r="C31" s="31">
         <v>93</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H31" s="15">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="5"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="35">
         <v>94</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="F32" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="25">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="37"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
         <v>60</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="35">
         <v>95</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="F33" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H33" s="25">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="38"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="26"/>
       <c r="B34" s="3" t="s">
         <v>62</v>
@@ -1961,16 +1795,12 @@
       <c r="C34" s="31">
         <v>96</v>
       </c>
-      <c r="D34" s="50"/>
+      <c r="D34" s="37"/>
       <c r="F34" s="24"/>
-      <c r="G34" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H34" s="25">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="21"/>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
         <v>63</v>
       </c>
@@ -1980,41 +1810,29 @@
       <c r="C35" s="31">
         <v>97</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H35" s="25">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="24"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="48">
+      <c r="C36" s="35">
         <v>98</v>
       </c>
-      <c r="D36" s="51"/>
-      <c r="F36" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" s="15">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="38"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>65</v>
       </c>
@@ -2024,20 +1842,14 @@
       <c r="C37" s="31">
         <v>99</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H37" s="15">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F37" s="5"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
         <v>77</v>
       </c>
@@ -2047,20 +1859,14 @@
       <c r="C38" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="9"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="22"/>
       <c r="B39" s="23" t="s">
         <v>18</v>
@@ -2073,46 +1879,44 @@
       <c r="G39" s="8"/>
       <c r="H39" s="16"/>
     </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="20"/>
       <c r="B40" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="43"/>
+      <c r="D40" s="51"/>
       <c r="F40" s="17"/>
       <c r="G40" s="18"/>
       <c r="H40" s="19"/>
     </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="45"/>
-      <c r="F41" s="33" t="s">
+      <c r="D41" s="53"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
+    </row>
+    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="G41" s="34"/>
-      <c r="H41" s="35"/>
-    </row>
-    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="35"/>
-    </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="43"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H43" s="2"/>
     </row>
-    <row r="56" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
         <v>31</v>
       </c>

--- a/contact-scrape-test/contacts.xlsx
+++ b/contact-scrape-test/contacts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4DEB21-78ED-4F1A-8650-1C2596677B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2ED8B1-5639-4364-BF0C-4C095D62A735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>jméno</t>
   </si>
@@ -307,12 +307,15 @@
   <si>
     <t>Aktualizace dne 17.4.2025</t>
   </si>
+  <si>
+    <t>Obecné</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +340,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -838,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -975,6 +986,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1281,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1867,7 +1879,9 @@
       <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="22"/>
+      <c r="A39" s="54" t="s">
+        <v>84</v>
+      </c>
       <c r="B39" s="23" t="s">
         <v>18</v>
       </c>
